--- a/biology/Botanique/Palicourea_guianensis/Palicourea_guianensis.xlsx
+++ b/biology/Botanique/Palicourea_guianensis/Palicourea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palicourea guianensis est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Palicourea.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Palicourea guianensis subsp. guianensis est un arbuste ou petit arbre atteignant jusqu'à 8 m de haut, pubérulent ou hirtelleux à glabrescent.
 On compte 2 feuilles par nœud, mesurant 13-43 × 6-18 cm.
@@ -521,10 +535,10 @@
 Les bractées florales sont longues de 0,5-1,5 mm.
 Le limbe du calice est long de 0,3-0,8 mm.
 Les corolles sont rouge à orange, jaune ou blanc, avec le tube long de 12-23 mm de long, avec un lobe long de 3-5 mm.
-Les fruits mesurent 4-7 × 3,5-5 mm et contiennent 2 pyrènes[4].
+Les fruits mesurent 4-7 × 3,5-5 mm et contiennent 2 pyrènes.
 En 1953, Lemée en propose la description suivante de Palicourea guianensis :
 « [Palicourea] guianensis Aubl. (Psychotria g. Raeusch.). Arbrisseau ou petit arbre glabre ; feuilies atteignant jusqu'à 0,30 sur 0,14, pétiolées elliptiques acuminées ou aiguës , à , base aiguë, chartacées granuleuses ponctuées-pellucides en dessous, avec 10-15 paires de nervures saillantes sur les 2 faces, stipules de 5 mm. à lobes ovales obtus ; grandes panicules à pédoncule 4-gône, bractées et bractéoles 0 ; fleurs à calice court subentier, corolle de 13 mm., orange, finement verruqueuse en dehors, étamines incluses ou exsertes selon la longueur du style, ovaire à 2-3-4 loges, style long de 14 mm. ou de 17 ; drupe de 4 mm., ovoïde noire côtelée. - Maroni : camp Godebert, Charvein, Nouveau-camp, inflorescence et calice rouges, corolle jaune ; herbier Lemée : Saint-Pierre du Maroni, Înflorescence d'un jaune clair. »
-— Albert Lemée, 1953.[5]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -552,9 +566,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea guianensis est présent du Mexique au Brésil, en passant par l'Amérique centrale, les Antilles, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea guianensis est présent du Mexique au Brésil, en passant par l'Amérique centrale, les Antilles, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie.
 </t>
         </is>
       </c>
@@ -583,12 +599,14 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea guianensis subsp. guianensis est présente dans les forêts de plaine, les pentes boisées montagnardes, les savanes, les bordures de forêts humides, à 100-1 300 m d'altitude[4].
-L'anatomie foliaire de Palicourea guianensis a été étudiée[6].
-La niche écologique de Palicourea guianensis a été évaluée[7].
-Les fleurs de Palicourea guianensis sont pollinisées par les colibris mais aussi visitées par des papillons[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea guianensis subsp. guianensis est présente dans les forêts de plaine, les pentes boisées montagnardes, les savanes, les bordures de forêts humides, à 100-1 300 m d'altitude.
+L'anatomie foliaire de Palicourea guianensis a été étudiée.
+La niche écologique de Palicourea guianensis a été évaluée.
+Les fleurs de Palicourea guianensis sont pollinisées par les colibris mais aussi visitées par des papillons.
 </t>
         </is>
       </c>
@@ -617,10 +635,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les alcaloïdes extraits de Palicourea guianensis présentent des propriétés anti-corrosives[9].
-L'extrait de Palicourea guianensis présente des propriétés antibactériennes[10], antioxydantes[11] et antifongiques[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les alcaloïdes extraits de Palicourea guianensis présentent des propriétés anti-corrosives.
+L'extrait de Palicourea guianensis présente des propriétés antibactériennes, antioxydantes et antifongiques.
 </t>
         </is>
       </c>
@@ -649,9 +669,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet a proposé le protologue suivant[13] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet a proposé le protologue suivant : 
 « PALICOUREA Guianenſis. (Tabula 66.)
 Frutex, ſeptem vel octo-pedalis, ramoſusi RAMis rectis, nodoſis. Folia ampla, oppoſita, ovata, acuta, glabra, integerrima, petiolata. Stipulæ binæ, latæ, oblongæ, acutæ, utrinquè ad baſim petiolorum, ſimul infernè unitæ, amplexicaules. Flores numeroſiſſimi, in paniculum amplum terminalem diſpoſiti. Corollæ tubus coccineus, limbus ſulphureus. Pericarpium immaturum tranſversim ſectum biloculare.
 Flores expanſi odorem ſuavem exhalant.
